--- a/game25/web.xlsx
+++ b/game25/web.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="11385" windowHeight="11535"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>domain</t>
   </si>
@@ -48,47 +47,49 @@
     <t>json</t>
   </si>
   <si>
-    <t>aeipathys.com</t>
-  </si>
-  <si>
-    <t>#ffa500</t>
-  </si>
-  <si>
-    <t>bibbless.com</t>
-  </si>
-  <si>
-    <t>#9d4edd</t>
-  </si>
-  <si>
-    <t>velleityes.com</t>
-  </si>
-  <si>
-    <t>#64ffda</t>
-  </si>
-  <si>
-    <t>legeritys.top</t>
-  </si>
-  <si>
-    <t>#e63946</t>
-  </si>
-  <si>
-    <t>aphasias.top</t>
-  </si>
-  <si>
-    <t>#c9a87a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sec.logorrhea.site
-</t>
-  </si>
-  <si>
-    <t>#bd9683</t>
-  </si>
-  <si>
-    <t>sec.horizonfun.fun</t>
-  </si>
-  <si>
-    <t>sedulitys.top</t>
+    <t>sec.selcouth.site</t>
+  </si>
+  <si>
+    <t>#284fef</t>
+  </si>
+  <si>
+    <t>sec.igneous.site</t>
+  </si>
+  <si>
+    <t>#24a765</t>
+  </si>
+  <si>
+    <t>sec.eunoias.cloud</t>
+  </si>
+  <si>
+    <t>#f0ff31</t>
+  </si>
+  <si>
+    <t>sec.uminous.top</t>
+  </si>
+  <si>
+    <t>#27456c</t>
+  </si>
+  <si>
+    <t>sec.nebulous.top</t>
+  </si>
+  <si>
+    <t>#98b0ca</t>
+  </si>
+  <si>
+    <t>fathom-hold.com</t>
+  </si>
+  <si>
+    <t>solace-rift.com</t>
+  </si>
+  <si>
+    <t>#f597ba</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>deasils.com</t>
   </si>
   <si>
     <t>#f7ece7</t>
@@ -97,7 +98,7 @@
     <t>#a61b29</t>
   </si>
   <si>
-    <t>conatuss.top</t>
+    <t>cacodox.com</t>
   </si>
   <si>
     <t>#e2e1dd</t>
@@ -106,7 +107,7 @@
     <t>#8abe98</t>
   </si>
   <si>
-    <t>droshky.fun</t>
+    <t>gloamis.com</t>
   </si>
   <si>
     <t>#fafbe6</t>
@@ -115,79 +116,31 @@
     <t>#a48ce6</t>
   </si>
   <si>
+    <t>inglenok.com</t>
+  </si>
+  <si>
+    <t>#c6e6e8</t>
+  </si>
+  <si>
+    <t>#373834</t>
+  </si>
+  <si>
+    <t>jentacul.com</t>
+  </si>
+  <si>
+    <t>#e3e3e5</t>
+  </si>
+  <si>
+    <t>#707899</t>
+  </si>
+  <si>
     <t>spuddles.fun</t>
   </si>
   <si>
-    <t>#c6e6e8</t>
-  </si>
-  <si>
-    <t>#373834</t>
-  </si>
-  <si>
     <t>moilfuns.fun</t>
   </si>
   <si>
-    <t>#e3e3e5</t>
-  </si>
-  <si>
-    <t>#707899</t>
-  </si>
-  <si>
-    <t>invicts.site</t>
-  </si>
-  <si>
-    <t>#e7bf40</t>
-  </si>
-  <si>
-    <t>halcyons.cloud</t>
-  </si>
-  <si>
-    <t>#a4dd52</t>
-  </si>
-  <si>
-    <t>plodfuns.fun</t>
-  </si>
-  <si>
-    <t>threaps.fun</t>
-  </si>
-  <si>
-    <t>#bdeae5</t>
-  </si>
-  <si>
-    <t>dfgtime.top</t>
-  </si>
-  <si>
-    <t>#36B06F</t>
-  </si>
-  <si>
-    <t>#a37070</t>
-  </si>
-  <si>
-    <t>assiduitys.site</t>
-  </si>
-  <si>
-    <t>#ff9988</t>
-  </si>
-  <si>
-    <t>#4167b1</t>
-  </si>
-  <si>
-    <t>conatives.site</t>
-  </si>
-  <si>
-    <t>#30abc5</t>
-  </si>
-  <si>
-    <t>#d62828</t>
-  </si>
-  <si>
-    <t>#e58889</t>
-  </si>
-  <si>
-    <t>#b57743</t>
-  </si>
-  <si>
-    <t>#f5f4f7</t>
+    <t>#70c588</t>
   </si>
 </sst>
 </file>
@@ -200,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,35 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,6 +186,36 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1450B8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF2972F4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,6 +227,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -415,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,37 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBD9683"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDEAE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF36B06F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF7ECE7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA37070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9988"/>
+        <fgColor rgb="FFA61B29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,13 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4167B1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF30ABC5"/>
+        <fgColor rgb="FF8ABE98"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD62828"/>
+        <fgColor rgb="FFA48CE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE58889"/>
+        <fgColor rgb="FF373834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,85 +441,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB57743"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F4F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA61B29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7BF40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4DD52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8ABE98"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA48CE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF373834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF707899"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9D4EDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF64FFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE63946"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9A87A"/>
+        <fgColor rgb="FF70C588"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF597BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FF31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF27456C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98B0CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF284FEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF24A765"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,12 +680,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E4E6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,79 +798,109 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,10 +909,10 @@
     <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,10 +921,10 @@
     <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,47 +933,17 @@
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1039,107 +951,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1524,112 +1407,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+      <c r="E3" s="24">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="aeipathys.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="bibbless.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="velleityes.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="legeritys.top"/>
-    <hyperlink ref="A6" r:id="rId5" display="aphasias.top"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1638,15 +1471,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1666,44 +1499,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="22.5" spans="1:5">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="29"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3">
+      <c r="C4" s="18"/>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="sec.logorrhea.site&#10;"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1713,18 +1580,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1735,68 +1602,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="sedulitys.top"/>
-    <hyperlink ref="A3" r:id="rId2" display="conatuss.top"/>
-    <hyperlink ref="A4" r:id="rId3" display="droshky.fun"/>
-    <hyperlink ref="A5" r:id="rId4" display="spuddles.fun"/>
-    <hyperlink ref="A6" r:id="rId5" display="moilfuns.fun"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3" display="fathom-hold.com"/>
+    <hyperlink ref="A3" r:id="rId4" display="solace-rift.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1806,197 +1655,108 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="G16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="G17" s="15" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="invicts.site"/>
-    <hyperlink ref="A3" r:id="rId2" display="halcyons.cloud"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="I6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="I7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="I8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="I9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A11" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="plodfuns.fun"/>
-    <hyperlink ref="A3" r:id="rId5" display="threaps.fun"/>
-    <hyperlink ref="A5" r:id="rId6" display="assiduitys.site"/>
-    <hyperlink ref="A6" r:id="rId7" display="conatives.site"/>
+    <hyperlink ref="F16" r:id="rId1" display="spuddles.fun"/>
+    <hyperlink ref="F17" r:id="rId2" display="moilfuns.fun"/>
+    <hyperlink ref="A2" r:id="rId3" display="deasils.com"/>
+    <hyperlink ref="A3" r:id="rId4" display="cacodox.com"/>
+    <hyperlink ref="A4" r:id="rId5" display="gloamis.com"/>
+    <hyperlink ref="A5" r:id="rId6" display="inglenok.com"/>
+    <hyperlink ref="A6" r:id="rId7" display="jentacul.com" tooltip="https://jentacul.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
